--- a/sem1/DB_СО-ИП-21-1.xlsx
+++ b/sem1/DB_СО-ИП-21-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15901637-7DB7-094E-8C96-676E8838FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AE01E-0354-DE44-8E19-23E5BEFF8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Калашников Игорь Юрьевич</t>
   </si>
   <si>
-    <t>Калмаков Алексей Евгеньевич</t>
-  </si>
-  <si>
     <t>Карпенко Анна Сергеевна</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>=</t>
-  </si>
-  <si>
-    <t>Роттэ</t>
   </si>
   <si>
     <t>Лаб 1</t>
@@ -605,28 +599,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -641,28 +635,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -677,28 +671,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -713,28 +707,28 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -749,28 +743,28 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -785,28 +779,28 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -821,28 +815,28 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -857,28 +851,28 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -893,28 +887,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -929,28 +923,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -962,31 +956,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -998,31 +992,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1034,31 +1028,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1070,31 +1064,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1106,31 +1100,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1142,31 +1136,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1178,31 +1172,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1214,31 +1208,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1250,31 +1244,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1286,31 +1280,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1322,31 +1316,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1358,31 +1352,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1394,31 +1388,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1430,31 +1424,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1470,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,13 +1483,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1547,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1566,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1596,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1615,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1630,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -1647,20 +1641,18 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1672,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1687,13 +1679,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -1704,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1717,16 +1709,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1736,16 +1728,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1755,16 +1747,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1774,13 +1766,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1791,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1804,13 +1796,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
@@ -1821,13 +1813,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
@@ -1838,16 +1830,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1857,16 +1849,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1876,10 +1868,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1891,10 +1883,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>

--- a/sem1/DB_СО-ИП-21-1.xlsx
+++ b/sem1/DB_СО-ИП-21-1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AE01E-0354-DE44-8E19-23E5BEFF8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E38C1A2-7968-1D4A-87F2-674F286A9273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Роттэ Артем</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,22 +187,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,11 +208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -540,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +539,8 @@
     <col min="4" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -577,7 +565,7 @@
       <c r="G1" s="4">
         <v>45183</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="8">
         <v>45189</v>
       </c>
       <c r="I1" s="4">
@@ -586,9 +574,15 @@
       <c r="J1" s="4">
         <v>45194</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="K1" s="4">
+        <v>45203</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45204</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45208</v>
+      </c>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -622,9 +616,15 @@
       <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -658,9 +658,15 @@
       <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -694,9 +700,15 @@
       <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -730,9 +742,15 @@
       <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -766,9 +784,15 @@
       <c r="J6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -802,9 +826,15 @@
       <c r="J7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -838,9 +868,15 @@
       <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -874,9 +910,15 @@
       <c r="J9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -910,9 +952,15 @@
       <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -946,9 +994,15 @@
       <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -982,9 +1036,15 @@
       <c r="J12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1018,9 +1078,15 @@
       <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1054,9 +1120,15 @@
       <c r="J14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1079,20 +1151,26 @@
         <v>25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1126,9 +1204,15 @@
       <c r="J16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1162,9 +1246,15 @@
       <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1198,9 +1288,15 @@
       <c r="J18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1232,11 +1328,17 @@
         <v>25</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1270,9 +1372,15 @@
       <c r="J20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1306,9 +1414,15 @@
       <c r="J21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1342,9 +1456,15 @@
       <c r="J22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1378,9 +1498,15 @@
       <c r="J23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1414,9 +1540,15 @@
       <c r="J24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1450,9 +1582,15 @@
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N25" s="5"/>
     </row>
   </sheetData>
@@ -1464,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1629,9 @@
       <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,8 +1641,12 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1566,7 +1710,9 @@
         <v>25</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1629,7 +1775,9 @@
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
@@ -1647,13 +1795,21 @@
         <v>25</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -1664,14 +1820,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,14 +1841,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1696,12 +1854,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -1720,7 +1886,9 @@
       <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1728,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>25</v>
@@ -1747,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>25</v>
@@ -1755,9 +1923,7 @@
       <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
@@ -1766,14 +1932,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1783,11 +1945,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
@@ -1796,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>25</v>
@@ -1804,7 +1972,9 @@
       <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
@@ -1813,7 +1983,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>25</v>
@@ -1821,7 +1991,9 @@
       <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
@@ -1830,7 +2002,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>25</v>
@@ -1841,7 +2013,9 @@
       <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1849,17 +2023,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
@@ -1868,7 +2038,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
@@ -1879,17 +2049,6 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>

--- a/sem1/DB_СО-ИП-21-1.xlsx
+++ b/sem1/DB_СО-ИП-21-1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E38C1A2-7968-1D4A-87F2-674F286A9273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C5991C-8AF0-994A-85AD-A3CF1728756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="38400" yWindow="8100" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -122,26 +122,38 @@
     <t>=</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
-    <t>Лаб 2</t>
-  </si>
-  <si>
-    <t>Лаб 3</t>
-  </si>
-  <si>
     <t>Роттэ Артем</t>
   </si>
   <si>
-    <t>Лаб 4</t>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Ат1 (40)</t>
+  </si>
+  <si>
+    <t>Лаб 1 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 2 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 3 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 4 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лаб 6 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +166,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,15 +225,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -525,25 +600,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.83203125" style="6"/>
+    <col min="3" max="10" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +639,7 @@
       <c r="G1" s="4">
         <v>45183</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="4">
         <v>45189</v>
       </c>
       <c r="I1" s="4">
@@ -583,9 +657,15 @@
       <c r="M1" s="4">
         <v>45208</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="4">
+        <v>45217</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45218</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -625,9 +705,15 @@
       <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -667,9 +753,15 @@
       <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -709,9 +801,15 @@
       <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -751,9 +849,15 @@
       <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -793,9 +897,15 @@
       <c r="M6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -827,17 +937,23 @@
         <v>26</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -877,9 +993,15 @@
       <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -919,9 +1041,15 @@
       <c r="M9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -961,9 +1089,15 @@
       <c r="M10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1003,9 +1137,15 @@
       <c r="M11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1045,9 +1185,15 @@
       <c r="M12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1087,9 +1233,15 @@
       <c r="M13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1129,9 +1281,15 @@
       <c r="M14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1171,9 +1329,15 @@
       <c r="M15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1213,9 +1377,15 @@
       <c r="M16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1255,9 +1425,15 @@
       <c r="M17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1297,9 +1473,15 @@
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1339,9 +1521,15 @@
       <c r="M19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1381,26 +1569,32 @@
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>25</v>
@@ -1412,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>26</v>
@@ -1423,14 +1617,20 @@
       <c r="M21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>25</v>
@@ -1465,14 +1665,20 @@
       <c r="M22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>25</v>
@@ -1507,68 +1713,80 @@
       <c r="M23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>25</v>
@@ -1580,7 +1798,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>26</v>
@@ -1591,29 +1809,100 @@
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
+    <sortCondition ref="B1:B26"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:XFD26">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52A886-8315-A84A-9CF1-CA34D72074B3}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,37 +1910,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+      <c r="G2" s="2">
+        <f>SUM(C2:F2)</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1661,10 +1963,15 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2">
+        <f>SUM(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1674,48 +1981,65 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+      <c r="G4" s="2">
+        <f>SUM(C4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(C5:F5)</f>
+        <v>40</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM(C6:F6)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1725,118 +2049,169 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2">
+        <f>SUM(C7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(C8:F8)</f>
+        <v>40</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
+      <c r="C9" s="5">
+        <v>10</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="5"/>
+      <c r="G9" s="2">
+        <f>SUM(C9:F9)</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(C10:F10)</f>
+        <v>40</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(C11:F11)</f>
+        <v>30</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM(C12:F12)</f>
+        <v>40</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM(C13:F13)</f>
+        <v>40</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1846,88 +2221,119 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+      <c r="G14" s="2">
+        <f>SUM(C14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM(C15:F15)</f>
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(C16:F16)</f>
+        <v>40</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2">
+        <f>SUM(C17:F17)</f>
+        <v>30</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(C18:F18)</f>
+        <v>40</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1937,122 +2343,198 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+      <c r="G19" s="2">
+        <f>SUM(C19:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUM(C20:F20)</f>
+        <v>40</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2">
+        <f>SUM(C21:F21)</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(C22:F22)</f>
+        <v>40</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <f>SUM(C23:F23)</f>
+        <v>40</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2">
+        <f>SUM(C24:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <f>SUM(C25:F25)</f>
+        <v>40</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2">
+        <f>SUM(C26:F26)</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+    <sortCondition ref="B1:B27"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>